--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.400000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.400000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.047773828405568e-47</v>
+        <v>2.010941506086268e-47</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.02956041452269e-47</v>
+        <v>2.040939859180184e-47</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.029764724206521e-47</v>
+        <v>2.078304144660176e-47</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.04689603849117e-47</v>
+        <v>2.122497102894169e-47</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.079463638410742e-47</v>
+        <v>2.172981474250231e-47</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.125976804999351e-47</v>
+        <v>2.229219999096385e-47</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.184944819291197e-47</v>
+        <v>2.29067541780074e-47</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.254876962320238e-47</v>
+        <v>2.356810470731159e-47</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.334282515120659e-47</v>
+        <v>2.42708789825574e-47</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.421670758726693e-47</v>
+        <v>2.500970440742608e-47</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.515550974172225e-47</v>
+        <v>2.577920838559593e-47</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.614432442491478e-47</v>
+        <v>2.657401832074811e-47</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.716824444718702e-47</v>
+        <v>2.738876161656396e-47</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.821236261887745e-47</v>
+        <v>2.821806567672157e-47</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.926177175032849e-47</v>
+        <v>2.905655790490222e-47</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.030156465188133e-47</v>
+        <v>2.989886570478617e-47</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.13168341338784e-47</v>
+        <v>3.073961648005474e-47</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.229267300665818e-47</v>
+        <v>3.157343763438597e-47</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.321460391583701e-47</v>
+        <v>3.239503510131655e-47</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.407679338235941e-47</v>
+        <v>3.320069402930679e-47</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.488141324062726e-47</v>
+        <v>3.398816211804296e-47</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.563093721209695e-47</v>
+        <v>3.475524222124189e-47</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.632783901822367e-47</v>
+        <v>3.549973719261932e-47</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.697459238046345e-47</v>
+        <v>3.621944988589191e-47</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>3.757367102026976e-47</v>
+        <v>3.691218315477351e-47</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.812754865909872e-47</v>
+        <v>3.757573985298085e-47</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.863869901840614e-47</v>
+        <v>3.820792283423045e-47</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.91095958196459e-47</v>
+        <v>3.880653495223642e-47</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>3.954271278427389e-47</v>
+        <v>3.936937906071534e-47</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>3.994052363374531e-47</v>
+        <v>3.989425801338295e-47</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.030550208951581e-47</v>
+        <v>4.037897466395562e-47</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.064012187303963e-47</v>
+        <v>4.082133186614778e-47</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.094685670577248e-47</v>
+        <v>4.121913247367589e-47</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>4.122818030916991e-47</v>
+        <v>4.157017934025609e-47</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>4.148606024506698e-47</v>
+        <v>4.1872485031998e-47</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>4.171907648085364e-47</v>
+        <v>4.212546566542774e-47</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>4.192441864233518e-47</v>
+        <v>4.2329113404334e-47</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>4.209927211625945e-47</v>
+        <v>4.248342216883342e-47</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>4.224082228937517e-47</v>
+        <v>4.258838587904352e-47</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>4.234625454843073e-47</v>
+        <v>4.264399845508152e-47</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>4.241275428017462e-47</v>
+        <v>4.265025381706458e-47</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>4.243750687135507e-47</v>
+        <v>4.260714588510991e-47</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>4.241769770872057e-47</v>
+        <v>4.251466857933474e-47</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.235051217901948e-47</v>
+        <v>4.237281581985608e-47</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>4.223313566900033e-47</v>
+        <v>4.218158152679152e-47</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>4.206275356541148e-47</v>
+        <v>4.194095962025809e-47</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.183655125500136e-47</v>
+        <v>4.165094402037301e-47</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.155171412451795e-47</v>
+        <v>4.131152864725301e-47</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.120542756071041e-47</v>
+        <v>4.09227074210162e-47</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.079537361175611e-47</v>
+        <v>4.048478571962531e-47</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.032561939629875e-47</v>
+        <v>4.000207301754916e-47</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.980466164530569e-47</v>
+        <v>3.948165661219943e-47</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.924108619385441e-47</v>
+        <v>3.893067967843712e-47</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.864347887702218e-47</v>
+        <v>3.835628539112304e-47</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.80204255298886e-47</v>
+        <v>3.776561692512031e-47</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>3.738051198753097e-47</v>
+        <v>3.716581745528976e-47</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.673232408502733e-47</v>
+        <v>3.656403015649299e-47</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.608444765745491e-47</v>
+        <v>3.596739820359081e-47</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.544546853989346e-47</v>
+        <v>3.538306477144638e-47</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.482397256742017e-47</v>
+        <v>3.481817303492051e-47</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>3.422854557511233e-47</v>
+        <v>3.42798661688741e-47</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>3.366753587930117e-47</v>
+        <v>3.377507141581513e-47</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>3.314345037466531e-47</v>
+        <v>3.330540548195653e-47</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>3.265273618794771e-47</v>
+        <v>3.286697603487713e-47</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>3.219155923944874e-47</v>
+        <v>3.245563509257106e-47</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>3.175608544947052e-47</v>
+        <v>3.2067234673034e-47</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>3.134248073831338e-47</v>
+        <v>3.169762679426002e-47</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>3.094691102627776e-47</v>
+        <v>3.134266347424331e-47</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.056554223366563e-47</v>
+        <v>3.09981967309794e-47</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.019454028077739e-47</v>
+        <v>3.066007858246245e-47</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.983007108791353e-47</v>
+        <v>3.032416104668664e-47</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.946830057537592e-47</v>
+        <v>2.998629614164749e-47</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.910539466346503e-47</v>
+        <v>2.964233588533917e-47</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.873751927248181e-47</v>
+        <v>2.928813229575631e-47</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.836084032272668e-47</v>
+        <v>2.891953739089303e-47</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.797152373450158e-47</v>
+        <v>2.853240318874494e-47</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.756573542810695e-47</v>
+        <v>2.812258170730618e-47</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.713964132384317e-47</v>
+        <v>2.768592496457079e-47</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.66894073420123e-47</v>
+        <v>2.721828497853453e-47</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.621119940291472e-47</v>
+        <v>2.671551376719147e-47</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.570118342685138e-47</v>
+        <v>2.617346334853625e-47</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>2.515552533412248e-47</v>
+        <v>2.558798574056269e-47</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.457039104503039e-47</v>
+        <v>2.495493296126694e-47</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>2.394194647987535e-47</v>
+        <v>2.427015702864291e-47</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>2.32663575589574e-47</v>
+        <v>2.352950996068419e-47</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.253979020257924e-47</v>
+        <v>2.272884377538737e-47</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.175841033104095e-47</v>
+        <v>2.186401049074612e-47</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.092182159565841e-47</v>
+        <v>2.093517027453606e-47</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.004749746429519e-47</v>
+        <v>1.996487767207789e-47</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91586996069257e-47</v>
+        <v>1.8982940978781e-47</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.827869266316217e-47</v>
+        <v>1.801917221159267e-47</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.743074127261691e-47</v>
+        <v>1.710338338746029e-47</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.663811007490555e-47</v>
+        <v>1.626538652333484e-47</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.592406370964033e-47</v>
+        <v>1.553499363616362e-47</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.531186681643389e-47</v>
+        <v>1.494201674289452e-47</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.482478403490126e-47</v>
+        <v>1.451626786047765e-47</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.448608000465494e-47</v>
+        <v>1.42875590058607e-47</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.431901936530829e-47</v>
+        <v>1.428570219599221e-47</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.434686675647489e-47</v>
+        <v>1.454050944782125e-47</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.459288681776805e-47</v>
+        <v>1.508179277829571e-47</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.235879578244417e-50</v>
+        <v>2.249432054623365e-50</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.848337366472903e-50</v>
+        <v>2.872865032706324e-50</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.687157316281217e-50</v>
+        <v>2.748522682044374e-50</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>3.531417698040136e-50</v>
+        <v>3.558072050235679e-50</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>4.335046214117515e-50</v>
+        <v>4.316641307970115e-50</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>4.379249581883747e-50</v>
+        <v>4.361705999139833e-50</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>6.937588232974108e-50</v>
+        <v>6.962936136866291e-50</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.795073924558545e-49</v>
+        <v>1.801692229630088e-49</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.578134273486985e-49</v>
+        <v>3.588038647963071e-49</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>4.334134549445744e-49</v>
+        <v>4.35013265629343e-49</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.455153266768536e-49</v>
+        <v>4.46466228723198e-49</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.379077639480008e-49</v>
+        <v>4.371611169926631e-49</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>4.14282668135745e-49</v>
+        <v>4.131946609635833e-49</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.841604961139914e-49</v>
+        <v>3.840302298102029e-49</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.599318033424583e-49</v>
+        <v>3.605588413351683e-49</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.425416900841204e-49</v>
+        <v>3.427734580971641e-49</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.309248000638268e-49</v>
+        <v>3.29970789909779e-49</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.293139893409878e-49</v>
+        <v>3.296037285887353e-49</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.14782530851203e-49</v>
+        <v>3.15583502980508e-49</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.996475585922e-49</v>
+        <v>2.992428859250413e-49</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.965785560577209e-49</v>
+        <v>2.958581824808393e-49</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.882626943154842e-49</v>
+        <v>2.876782498914252e-49</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.765788870187602e-49</v>
+        <v>2.762753126335715e-49</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.65705215936246e-49</v>
+        <v>2.656445848810196e-49</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.550541334935194e-49</v>
+        <v>2.551594484843845e-49</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.435218188775754e-49</v>
+        <v>2.436925899674217e-49</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.300720315518439e-49</v>
+        <v>2.301902134023294e-49</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.143580690913273e-49</v>
+        <v>2.143486404132881e-49</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.964363479034388e-49</v>
+        <v>1.963027275026076e-49</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.763807328825394e-49</v>
+        <v>1.762039501434982e-49</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.547462643474242e-49</v>
+        <v>1.546354019681511e-49</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.327130178896628e-49</v>
+        <v>1.327408381887818e-49</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.11502838381117e-49</v>
+        <v>1.117014813921792e-49</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>9.221143806850264e-50</v>
+        <v>9.257133960503926e-50</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>7.510269944130728e-50</v>
+        <v>7.556545586370225e-50</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.010404368700097e-50</v>
+        <v>6.055978473705651e-50</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>4.720606446930465e-50</v>
+        <v>4.75334192615553e-50</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.653169740063241e-50</v>
+        <v>3.668029093620173e-50</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.820690788361927e-50</v>
+        <v>2.82051679907378e-50</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.209413337738966e-50</v>
+        <v>2.200207831794817e-50</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.781412408280854e-50</v>
+        <v>1.768006303058784e-50</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.497868520745189e-50</v>
+        <v>1.483761570633145e-50</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.319962195889904e-50</v>
+        <v>1.307322992285704e-50</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.20887395447254e-50</v>
+        <v>1.198539925783866e-50</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.127282570227638e-50</v>
+        <v>1.118818926946859e-50</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.058449316225017e-50</v>
+        <v>1.050958818693331e-50</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.00059053860799e-50</v>
+        <v>9.933018675475002e-51</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>9.522592370285831e-51</v>
+        <v>9.445402383457944e-51</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>9.12008411138842e-51</v>
+        <v>9.033660959246578e-51</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>8.783910605908639e-51</v>
+        <v>8.684716051205884e-51</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>8.499601850366904e-51</v>
+        <v>8.385489307700279e-51</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>8.252687841283824e-51</v>
+        <v>8.122902377094368e-51</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>8.028698575179913e-51</v>
+        <v>7.883876907752665e-51</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>7.815078552518656e-51</v>
+        <v>7.657050778128298e-51</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>7.608756727191086e-51</v>
+        <v>7.439564071334654e-51</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>7.409593706712192e-51</v>
+        <v>7.231184910075829e-51</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>7.217450956857047e-51</v>
+        <v>7.031682186431132e-51</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>7.032189943400455e-51</v>
+        <v>6.840824792479586e-51</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>6.853672132117316e-51</v>
+        <v>6.658381620300309e-51</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>6.681758988782449e-51</v>
+        <v>6.48412156197235e-51</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>6.516311979170903e-51</v>
+        <v>6.31781350957498e-51</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>6.357192569057495e-51</v>
+        <v>6.159226355187242e-51</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>6.204262224217055e-51</v>
+        <v>6.008128990888189e-51</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>6.057382410424618e-51</v>
+        <v>5.864290308757074e-51</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>5.91641459345501e-51</v>
+        <v>5.727479200872953e-51</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>5.781220239083126e-51</v>
+        <v>5.59746455931494e-51</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>5.651660813083805e-51</v>
+        <v>5.474015276162104e-51</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>5.527597781232059e-51</v>
+        <v>5.356900243493675e-51</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>5.408892609302729e-51</v>
+        <v>5.245888353388717e-51</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>5.295406763070656e-51</v>
+        <v>5.140748497926302e-51</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>5.187001708310843e-51</v>
+        <v>5.041249569185648e-51</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>5.083538910798129e-51</v>
+        <v>4.94716045924582e-51</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>4.984879836307415e-51</v>
+        <v>4.858250060185943e-51</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.890885950613551e-51</v>
+        <v>4.774287264085098e-51</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.801418719491524e-51</v>
+        <v>4.695040963022483e-51</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.716339608716183e-51</v>
+        <v>4.620280049077177e-51</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.635510084062389e-51</v>
+        <v>4.549773414328269e-51</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.55879161130511e-51</v>
+        <v>4.483289950854943e-51</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.486045656219207e-51</v>
+        <v>4.420598550736284e-51</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>4.417133684579575e-51</v>
+        <v>4.361468106051415e-51</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>4.351917162161083e-51</v>
+        <v>4.30566750887943e-51</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>4.290257554738684e-51</v>
+        <v>4.252965651299499e-51</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.232016328087246e-51</v>
+        <v>4.203131425390718e-51</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>4.177054947981666e-51</v>
+        <v>4.155933723232205e-51</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>4.125234880196813e-51</v>
+        <v>4.111141436903059e-51</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>4.076417590507633e-51</v>
+        <v>4.068523458482442e-51</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>4.030464544689e-51</v>
+        <v>4.027848680049454e-51</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>3.987237213744373e-51</v>
+        <v>3.988886008676675e-51</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>3.946615750606999e-51</v>
+        <v>3.951457923692677e-51</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>3.908540950409712e-51</v>
+        <v>3.915560801849242e-51</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>3.872965891312873e-51</v>
+        <v>3.8812262426778e-51</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>3.839843651476895e-51</v>
+        <v>3.848485845709829e-51</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>3.809127309062132e-51</v>
+        <v>3.817371210476756e-51</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>3.780769942228964e-51</v>
+        <v>3.787913936510027e-51</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>3.754724629137756e-51</v>
+        <v>3.760145623341077e-51</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.730944447948906e-51</v>
+        <v>3.734097870501375e-51</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.709382476822782e-51</v>
+        <v>3.709802277522353e-51</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.689991793919758e-51</v>
+        <v>3.687290443935459e-51</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.672725477400204e-51</v>
+        <v>3.666593969272127e-51</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.657536605424512e-51</v>
+        <v>3.647744453063822e-51</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.644378256153049e-51</v>
+        <v>3.630773494841979e-51</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.633203507746189e-51</v>
+        <v>3.615712694138038e-51</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.623965438364319e-51</v>
+        <v>3.602593650483458e-51</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.616617126167808e-51</v>
+        <v>3.591447963409677e-51</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.611111649317033e-51</v>
+        <v>3.582307232448138e-51</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.607402085972371e-51</v>
+        <v>3.575203057130287e-51</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.6054415142942e-51</v>
+        <v>3.570167036987574e-51</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.605183012442896e-51</v>
+        <v>3.567230771551443e-51</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.606579658578836e-51</v>
+        <v>3.566425860353336e-51</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.609584530862394e-51</v>
+        <v>3.567783902924702e-51</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.614150707453949e-51</v>
+        <v>3.571336498796985e-51</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.620231266513875e-51</v>
+        <v>3.577115247501628e-51</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.627779286202556e-51</v>
+        <v>3.585151748570084e-51</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.636747844680357e-51</v>
+        <v>3.595477601533789e-51</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.647259825360856e-51</v>
+        <v>3.608269790077685e-51</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>3.660345358881364e-51</v>
+        <v>3.62448206637385e-51</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.677336331995992e-51</v>
+        <v>3.645326540665006e-51</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.699564834674181e-51</v>
+        <v>3.672015497183135e-51</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.728362956885359e-51</v>
+        <v>3.705761220160201e-51</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.765062788598975e-51</v>
+        <v>3.7477759938282e-51</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>3.81099641978443e-51</v>
+        <v>3.799272102419062e-51</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>3.867495940411171e-51</v>
+        <v>3.861461830164775e-51</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>3.935893440448661e-51</v>
+        <v>3.935557461297345e-51</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.017521009866271e-51</v>
+        <v>4.022771280048675e-51</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.113710738633461e-51</v>
+        <v>4.124315570650767e-51</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.225794716719662e-51</v>
+        <v>4.241402617335591e-51</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.355105034094369e-51</v>
+        <v>4.375244704335181e-51</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.502973780726893e-51</v>
+        <v>4.527054115881386e-51</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.670733046586727e-51</v>
+        <v>4.698043136206235e-51</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.859714921643388e-51</v>
+        <v>4.889424049541787e-51</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>5.071251495866138e-51</v>
+        <v>5.10240914011984e-51</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>5.306747064305272e-51</v>
+        <v>5.338298262885756e-51</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>5.568372927624518e-51</v>
+        <v>5.599321501349906e-51</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>5.858762896815074e-51</v>
+        <v>5.8882698740545e-51</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.180557160805524e-51</v>
+        <v>6.207942134738857e-51</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>6.536395908524828e-51</v>
+        <v>6.56113703714268e-51</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.92891932890183e-51</v>
+        <v>6.950653335005548e-51</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>7.360767610865572e-51</v>
+        <v>7.379289782067243e-51</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>7.834580943344507e-51</v>
+        <v>7.849845132066955e-51</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>8.352999515267661e-51</v>
+        <v>8.365118138744455e-51</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>8.918663515564143e-51</v>
+        <v>8.927907555839584e-51</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>9.534213133162282e-51</v>
+        <v>9.541012137091411e-51</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.020228855699116e-50</v>
+        <v>1.020723063623976e-50</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.092552997597997e-50</v>
+        <v>1.092936180702455e-50</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.170533353473122e-50</v>
+        <v>1.170894608212074e-50</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.252785628238783e-50</v>
+        <v>1.253210991383533e-50</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.336904156731971e-50</v>
+        <v>1.337464884056928e-50</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.420464449280034e-50</v>
+        <v>1.42121679953134e-50</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.501042016210201e-50</v>
+        <v>1.502027251105738e-50</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.576212367849821e-50</v>
+        <v>1.577456752079205e-50</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.643551014526201e-50</v>
+        <v>1.645065815750784e-50</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.700633466566672e-50</v>
+        <v>1.702414955419543e-50</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.745035234298492e-50</v>
+        <v>1.747064684384474e-50</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.774331828048995e-50</v>
+        <v>1.77657551594465e-50</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.786098758145493e-50</v>
+        <v>1.788507963399115e-50</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.777911534915281e-50</v>
+        <v>1.780422540046902e-50</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.747345668685677e-50</v>
+        <v>1.749879759187067e-50</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.692224086706458e-50</v>
+        <v>1.69468889758098e-50</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.613889607881894e-50</v>
+        <v>1.616198280274429e-50</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.516304407763784e-50</v>
+        <v>1.518389844526194e-50</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.403493027280913e-50</v>
+        <v>1.405308232388864e-50</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.27948000736204e-50</v>
+        <v>1.280998085915005e-50</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.148289888936092e-50</v>
+        <v>1.149504047157351e-50</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.013947212931833e-50</v>
+        <v>1.014870758168471e-50</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>8.804765202780772e-51</v>
+        <v>8.811428610009858e-51</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>7.519023519035846e-51</v>
+        <v>7.523649977074617e-51</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>6.322492487372878e-51</v>
+        <v>6.32581810340637e-51</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>5.255417517079434e-51</v>
+        <v>5.258379409530748e-51</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.358044017443312e-51</v>
+        <v>4.361780315973606e-51</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.670617397753491e-51</v>
+        <v>3.676467243261985e-51</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.233383067297681e-51</v>
+        <v>3.242886611921658e-51</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.07542012556109e-51</v>
+        <v>3.090165692050558e-51</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.069553876740049e-51</v>
+        <v>3.089039210007811e-51</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.97363286471917e-51</v>
+        <v>2.993691369312744e-51</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.54322084613944e-51</v>
+        <v>2.555993061684744e-51</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.738812208945985e-51</v>
+        <v>1.737026124974199e-51</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.058891025256857e-51</v>
+        <v>1.047081011473997e-51</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>7.9306264450925e-52</v>
+        <v>7.819721162613715e-52</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>7.457197517969113e-52</v>
+        <v>7.401535637175601e-52</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>7.05618768138382e-52</v>
+        <v>7.042081480175721e-52</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>6.283249817827355e-52</v>
+        <v>6.286020845602331e-52</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>5.28851614031281e-52</v>
+        <v>5.290580092653647e-52</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>4.222847879542726e-52</v>
+        <v>4.213736775932972e-52</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.233581228496152e-52</v>
+        <v>3.209799174525937e-52</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.398543097423581e-52</v>
+        <v>2.36072209803201e-52</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.731927683580375e-52</v>
+        <v>1.682223914279309e-52</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.24558233597931e-52</v>
+        <v>1.187580114316868e-52</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>9.513544036337818e-53</v>
+        <v>8.90066189194352e-53</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>8.61091235556483e-53</v>
+        <v>8.029576299607089e-53</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>9.866401807603658e-53</v>
+        <v>9.395299276651521e-53</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.339848588258596e-52</v>
+        <v>1.313058573357118e-52</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.932563807063812e-52</v>
+        <v>1.93681905808549e-52</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.816091660677586e-52</v>
+        <v>2.861540036140141e-52</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>4.499912016109385e-52</v>
+        <v>4.572839433799391e-52</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>7.516942542267453e-52</v>
+        <v>7.574851885149392e-52</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.105585676904664e-51</v>
+        <v>1.107727597315191e-51</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.390857553084965e-51</v>
+        <v>1.390798381034307e-51</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.564552489292606e-51</v>
+        <v>1.565211829131005e-51</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.682907068564402e-51</v>
+        <v>1.685970444050369e-51</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.808594324078169e-51</v>
+        <v>1.814337608120709e-51</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.004281969232731e-51</v>
+        <v>2.011571472003316e-51</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.304551359199386e-51</v>
+        <v>2.311309024967062e-51</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.650336266933107e-51</v>
+        <v>2.655090767250388e-51</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.963076271130696e-51</v>
+        <v>2.965285888897013e-51</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.164210950489015e-51</v>
+        <v>3.164263579950712e-51</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.183461850663171e-51</v>
+        <v>3.182615556588682e-51</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.061926968731925e-51</v>
+        <v>3.061510622181902e-51</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.920446770078728e-51</v>
+        <v>2.921287725657842e-51</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.881594656751615e-51</v>
+        <v>2.884006315081908e-51</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.036496955537941e-51</v>
+        <v>3.040388817961254e-51</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.341267400347246e-51</v>
+        <v>3.346617569805165e-51</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.715793872015111e-51</v>
+        <v>3.722775831944841e-51</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>4.07996380838802e-51</v>
+        <v>4.088946424272708e-51</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>4.353664852187862e-51</v>
+        <v>4.365212370350805e-51</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>4.479040848928526e-51</v>
+        <v>4.493781907803987e-51</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>4.481725973820797e-51</v>
+        <v>4.499862222190108e-51</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>4.406928374980134e-51</v>
+        <v>4.428119269488151e-51</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.299856200521901e-51</v>
+        <v>4.323219005677014e-51</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.204120719960151e-51</v>
+        <v>4.228260042236678e-51</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.138262988849528e-51</v>
+        <v>4.161734447667917e-51</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.100905144393425e-51</v>
+        <v>4.122583770427962e-51</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.090119820761511e-51</v>
+        <v>4.109210218941342e-51</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.103979652123462e-51</v>
+        <v>4.120016001632597e-51</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>4.140557272648933e-51</v>
+        <v>4.153403326926246e-51</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>4.197925316507594e-51</v>
+        <v>4.207774403246821e-51</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>4.274156417869146e-51</v>
+        <v>4.281531439018887e-51</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.367312748517265e-51</v>
+        <v>4.373064934809983e-51</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>4.474093702656075e-51</v>
+        <v>4.479240384842281e-51</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>4.58849821039117e-51</v>
+        <v>4.593901348616212e-51</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>4.704207300645401e-51</v>
+        <v>4.710535640624261e-51</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>4.814902002341767e-51</v>
+        <v>4.822631075359068e-51</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>4.914263344403223e-51</v>
+        <v>4.923675467313231e-51</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>4.995972355752754e-51</v>
+        <v>5.007156630979373e-51</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>5.053710065313236e-51</v>
+        <v>5.066562380850011e-51</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>5.081157502007664e-51</v>
+        <v>5.095380531417777e-51</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>5.072008689750304e-51</v>
+        <v>5.087112282295891e-51</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>5.022644814874441e-51</v>
+        <v>5.038026668200509e-51</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>4.935409530887818e-51</v>
+        <v>4.950534193313411e-51</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>4.813448170566876e-51</v>
+        <v>4.827871108710383e-51</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.659906066687976e-51</v>
+        <v>4.673273665467132e-51</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>4.477928552027696e-51</v>
+        <v>4.489978114659585e-51</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>4.270660959362412e-51</v>
+        <v>4.281220707363462e-51</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>4.041248621468454e-51</v>
+        <v>4.050237694654441e-51</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>3.79283687112247e-51</v>
+        <v>3.800265327608514e-51</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>3.528650927365122e-51</v>
+        <v>3.534616517047279e-51</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>3.253131006436101e-51</v>
+        <v>3.25777009858988e-51</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.971662791022199e-51</v>
+        <v>2.975112187951912e-51</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.689656878615517e-51</v>
+        <v>2.692052809372689e-51</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>2.412523866707773e-51</v>
+        <v>2.414001987091146e-51</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>2.145674352790695e-51</v>
+        <v>2.146369745346224e-51</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.894518934356371e-51</v>
+        <v>1.894566108377226e-51</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.664468208896523e-51</v>
+        <v>1.664001100423089e-51</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.460932773902996e-51</v>
+        <v>1.460084745722872e-51</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.287845086723255e-51</v>
+        <v>1.286746783113255e-51</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.143041659505706e-51</v>
+        <v>1.141812159049632e-51</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.022787758882712e-51</v>
+        <v>1.021532294087436e-51</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>9.233486498782277e-52</v>
+        <v>9.221586071713587e-52</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>8.409895975161756e-52</v>
+        <v>8.399425172460581e-52</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>7.719758668205841e-52</v>
+        <v>7.711354432562988e-52</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>7.125727228153681e-52</v>
+        <v>7.119888041467318e-52</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>6.590454305244596e-52</v>
+        <v>6.587540188620253e-52</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>6.076682570002894e-52</v>
+        <v>6.076915044131453e-52</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>5.564038204153942e-52</v>
+        <v>5.567492858113049e-52</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>5.068789357846869e-52</v>
+        <v>5.075379721309697e-52</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>4.612006666211536e-52</v>
+        <v>4.621482095655446e-52</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>4.214760764377108e-52</v>
+        <v>4.226706443083665e-52</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.898122287472989e-52</v>
+        <v>3.911959225527948e-52</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.683161870628506e-52</v>
+        <v>3.698146904921816e-52</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.590950148973264e-52</v>
+        <v>3.606175943199071e-52</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.642557757636538e-52</v>
+        <v>3.656952802293182e-52</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.85861853804224e-52</v>
+        <v>3.870950413700734e-52</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>4.235297773802686e-52</v>
+        <v>4.244355954733313e-52</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.731802019208895e-52</v>
+        <v>4.736673990584616e-52</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>5.304269037167335e-52</v>
+        <v>5.30436322188271e-52</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.908836590584607e-52</v>
+        <v>5.9038823492558e-52</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>6.501642442366479e-52</v>
+        <v>6.491690073331261e-52</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>7.038824355419548e-52</v>
+        <v>7.024245094737295e-52</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>7.47652009265031e-52</v>
+        <v>7.458006114101996e-52</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>7.770867416964686e-52</v>
+        <v>7.749431832052893e-52</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>7.886820185470343e-52</v>
+        <v>7.863733142364245e-52</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>7.835472155889184e-52</v>
+        <v>7.811926406935497e-52</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>7.642960809007735e-52</v>
+        <v>7.619962670405918e-52</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>7.335431904675008e-52</v>
+        <v>7.313801196468743e-52</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.939031202739791e-52</v>
+        <v>6.919401248816977e-52</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>6.479904463050926e-52</v>
+        <v>6.462722091143681e-52</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.984197445457019e-52</v>
+        <v>5.969722987141684e-52</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.478055909807368e-52</v>
+        <v>5.466363200504499e-52</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>4.987625216801112e-52</v>
+        <v>4.97860159863414e-52</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.533700775855042e-52</v>
+        <v>4.527085413254517e-52</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.118316122384998e-52</v>
+        <v>4.113834372011073e-52</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>3.739394252433841e-52</v>
+        <v>3.736787102285443e-52</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.394858162044658e-52</v>
+        <v>3.393882231459482e-52</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.082630847260394e-52</v>
+        <v>3.083058386914909e-52</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.800635304124409e-52</v>
+        <v>2.802254196033855e-52</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.546794528679638e-52</v>
+        <v>2.549408286198023e-52</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.319031516969161e-52</v>
+        <v>2.322459284789267e-52</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.115269265035972e-52</v>
+        <v>2.119345819189352e-52</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.933430768923337e-52</v>
+        <v>1.938006516780312e-52</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.771439024674236e-52</v>
+        <v>1.7763800049439e-52</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.62721702833169e-52</v>
+        <v>1.63240491106191e-52</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.498687775938911e-52</v>
+        <v>1.504019862516321e-52</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.383774263538909e-52</v>
+        <v>1.389163486688917e-52</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.280399487174722e-52</v>
+        <v>1.285774410961505e-52</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.186486442889522e-52</v>
+        <v>1.19179126271603e-52</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.099958126726341e-52</v>
+        <v>1.105152669334294e-52</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.018921042660116e-52</v>
+        <v>1.023979428992623e-52</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>9.427075707759599e-53</v>
+        <v>9.47609283585578e-53</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>8.71152368464994e-53</v>
+        <v>8.758785924514297e-53</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>8.040916105634432e-53</v>
+        <v>8.086252213166287e-53</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>7.413614719075671e-53</v>
+        <v>7.456870359076628e-53</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>6.827981273336006e-53</v>
+        <v>6.86901901950993e-53</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>6.282377516778558e-53</v>
+        <v>6.321076851731593e-53</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.775165197765654e-53</v>
+        <v>5.81142251300621e-53</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.30470606465969e-53</v>
+        <v>5.33843466059845e-53</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.869361865823687e-53</v>
+        <v>4.900491951773605e-53</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.467494349620021e-53</v>
+        <v>4.495973043796323e-53</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.097465264411136e-53</v>
+        <v>4.123256593931314e-53</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.75763635855996e-53</v>
+        <v>3.780721259443785e-53</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.446369380428918e-53</v>
+        <v>3.466745697598427e-53</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.162026078380488e-53</v>
+        <v>3.179708565659988e-53</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.902968200777634e-53</v>
+        <v>2.917988520893707e-53</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.667557495982488e-53</v>
+        <v>2.679964220563982e-53</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.45415571235789e-53</v>
+        <v>2.464014321935928e-53</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.261124598266602e-53</v>
+        <v>2.26851748227458e-53</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.086825902070874e-53</v>
+        <v>2.091852358844452e-53</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.92962137213362e-53</v>
+        <v>1.932397608910736e-53</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.787872756817155e-53</v>
+        <v>1.788531889738012e-53</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.659941804484222e-53</v>
+        <v>1.658633858591298e-53</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.544190263497519e-53</v>
+        <v>1.541082172735564e-53</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.438979882219434e-53</v>
+        <v>1.434255489435465e-53</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.342672409012674e-53</v>
+        <v>1.336532465955982e-53</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.253693855975982e-53</v>
+        <v>1.246354478377264e-53</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.171219507305289e-53</v>
+        <v>1.162894162134666e-53</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.094909098189017e-53</v>
+        <v>1.08579695729852e-53</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.024430485287719e-53</v>
+        <v>1.014716230168485e-53</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>9.594515252617583e-54</v>
+        <v>9.493053470440286e-54</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>8.9964007477169e-54</v>
+        <v>8.892176742248162e-54</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>8.446639904780525e-54</v>
+        <v>8.341065780104923e-54</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>7.941911290412371e-54</v>
+        <v>7.836254247005541e-54</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>7.478893471217858e-54</v>
+        <v>7.374275805946516e-54</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>7.054265013802253e-54</v>
+        <v>6.951664119924176e-54</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>6.664704484769696e-54</v>
+        <v>6.564952851933735e-54</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>6.306890450725798e-54</v>
+        <v>6.210675664971871e-54</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>5.977501478274819e-54</v>
+        <v>5.885366222033916e-54</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>5.673216134021998e-54</v>
+        <v>5.585558186116175e-54</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>5.39071298457248e-54</v>
+        <v>5.307785220214863e-54</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>5.126670596530662e-54</v>
+        <v>5.048580987325449e-54</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>4.877767536501713e-54</v>
+        <v>4.804479150444169e-54</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>4.640730899959712e-54</v>
+        <v>4.572064280842305e-54</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>4.413689930171077e-54</v>
+        <v>4.349391845921102e-54</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>4.196356115001176e-54</v>
+        <v>4.13617713629717e-54</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.988525655502838e-54</v>
+        <v>3.932224309324485e-54</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.789994752728331e-54</v>
+        <v>3.737337522356463e-54</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.600559607730659e-54</v>
+        <v>3.551320932747246e-54</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.42001642156213e-54</v>
+        <v>3.37397869785029e-54</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>3.24816139527556e-54</v>
+        <v>3.205114975019554e-54</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>3.08479072992374e-54</v>
+        <v>3.044533921608969e-54</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.929700626559022e-54</v>
+        <v>2.892039694972037e-54</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.7826872862342e-54</v>
+        <v>2.747436452462692e-54</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.643546910002042e-54</v>
+        <v>2.610528351434846e-54</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.512075698914944e-54</v>
+        <v>2.481119549242041e-54</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.388069854025679e-54</v>
+        <v>2.359014203238193e-54</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.271325576386996e-54</v>
+        <v>2.244016470777192e-54</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.161639067051329e-54</v>
+        <v>2.13593050921262e-54</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.058806527071431e-54</v>
+        <v>2.034560475898372e-54</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.962624157500034e-54</v>
+        <v>1.939710528188323e-54</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.872888159389607e-54</v>
+        <v>1.851184823436088e-54</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.78939473379296e-54</v>
+        <v>1.768787518995618e-54</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.711940081762586e-54</v>
+        <v>1.692322772220554e-54</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.64032040435121e-54</v>
+        <v>1.621594740464763e-54</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.574331902611535e-54</v>
+        <v>1.556407581082088e-54</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.513770777596085e-54</v>
+        <v>1.496565451426204e-54</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.45843323035757e-54</v>
+        <v>1.44187250885096e-54</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.408115461948677e-54</v>
+        <v>1.392132910710188e-54</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.362613673421962e-54</v>
+        <v>1.347150814357588e-54</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.321724065830118e-54</v>
+        <v>1.306730377146996e-54</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.28524284022582e-54</v>
+        <v>1.270675756432233e-54</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.252966197661649e-54</v>
+        <v>1.238791109567022e-54</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.224690339190285e-54</v>
+        <v>1.210880593905188e-54</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.200211465864394e-54</v>
+        <v>1.186748366800539e-54</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.179325778736577e-54</v>
+        <v>1.166198585606823e-54</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.161829478859517e-54</v>
+        <v>1.149035407677865e-54</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.147518767285829e-54</v>
+        <v>1.135062990367423e-54</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.136189695127934e-54</v>
+        <v>1.124085068120419e-54</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.127636022733799e-54</v>
+        <v>1.115898914243469e-54</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.121649722552478e-54</v>
+        <v>1.110296759245331e-54</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.118022719606517e-54</v>
+        <v>1.107070699867476e-54</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.116546938918454e-54</v>
+        <v>1.106012832851373e-54</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.117014305510825e-54</v>
+        <v>1.106915254938483e-54</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.119216744406168e-54</v>
+        <v>1.109570062870275e-54</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.122946180627017e-54</v>
+        <v>1.113769353388211e-54</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.127994539195917e-54</v>
+        <v>1.119305223233765e-54</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.134153745135396e-54</v>
+        <v>1.125969769148392e-54</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.141215723468002e-54</v>
+        <v>1.13355508787357e-54</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.148972399216268e-54</v>
+        <v>1.14185327615076e-54</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.157215697402724e-54</v>
+        <v>1.15065643072142e-54</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.165737543049923e-54</v>
+        <v>1.159756648327031e-54</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.174329861180394e-54</v>
+        <v>1.168946025709052e-54</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.182784576816666e-54</v>
+        <v>1.178016659608939e-54</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.190893614981294e-54</v>
+        <v>1.186760646768177e-54</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.198448900696807e-54</v>
+        <v>1.194970083928222e-54</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.205242358985735e-54</v>
+        <v>1.202437067830533e-54</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.21106591487063e-54</v>
+        <v>1.208953695216591e-54</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.215711493374022e-54</v>
+        <v>1.214312062827853e-54</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.218971019518446e-54</v>
+        <v>1.218304267405784e-54</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.220729316187565e-54</v>
+        <v>1.220814568279765e-54</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.221870238442621e-54</v>
+        <v>1.222718349760761e-54</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.223885731370202e-54</v>
+        <v>1.225494273239989e-54</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.228276356430558e-54</v>
+        <v>1.230629548284973e-54</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.236542675083929e-54</v>
+        <v>1.239611384463225e-54</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.250185248790578e-54</v>
+        <v>1.25392699134228e-54</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.27070463901075e-54</v>
+        <v>1.275063578489657e-54</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.299601407204661e-54</v>
+        <v>1.304508355472845e-54</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.338376114832615e-54</v>
+        <v>1.343748531859418e-54</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.388529323354838e-54</v>
+        <v>1.394271317216877e-54</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.451561594231515e-54</v>
+        <v>1.45756392111268e-54</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.52897348892301e-54</v>
+        <v>1.535113553114462e-54</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.622265568889521e-54</v>
+        <v>1.628407422789693e-54</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.732484970737946e-54</v>
+        <v>1.738482810953766e-54</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.857562084340026e-54</v>
+        <v>1.863284283148763e-54</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.994117069894585e-54</v>
+        <v>1.99945627767984e-54</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.138765553472581e-54</v>
+        <v>2.143638733684372e-54</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.288123161144601e-54</v>
+        <v>2.292471590299363e-54</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.438805518981218e-54</v>
+        <v>2.442594786661805e-54</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.587428253053413e-54</v>
+        <v>2.590648261909094e-54</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.730606989431756e-54</v>
+        <v>2.733271955178221e-54</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.864957354186841e-54</v>
+        <v>2.867105805606193e-54</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.98748573062692e-54</v>
+        <v>2.989176388036139e-54</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>3.09698298311337e-54</v>
+        <v>3.098275936460977e-54</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>3.192749085199345e-54</v>
+        <v>3.193700424210692e-54</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>3.274084048855894e-54</v>
+        <v>3.274745862627948e-54</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.340287886053745e-54</v>
+        <v>3.340708263055092e-54</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>3.390660608763897e-54</v>
+        <v>3.390883636834737e-54</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>3.424502228957155e-54</v>
+        <v>3.424567995309308e-54</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.44111275860439e-54</v>
+        <v>3.441057349821292e-54</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.439792209676507e-54</v>
+        <v>3.43964771171321e-54</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.419840594144359e-54</v>
+        <v>3.419635092327534e-54</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.380557923978865e-54</v>
+        <v>3.3803155030068e-54</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.321244211150831e-54</v>
+        <v>3.320984955093431e-54</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.241199467631158e-54</v>
+        <v>3.240939459929944e-54</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.139723705390825e-54</v>
+        <v>3.139475028858936e-54</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.016116936400522e-54</v>
+        <v>3.015887673222713e-54</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.869679172631209e-54</v>
+        <v>2.869473404363855e-54</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.699710426053924e-54</v>
+        <v>2.699528233625013e-54</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.506110649847521e-54</v>
+        <v>2.50594849563658e-54</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.292801846847088e-54</v>
+        <v>2.292655136176835e-54</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.065359277173988e-54</v>
+        <v>2.065223411207517e-54</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.829363283396573e-54</v>
+        <v>1.829233662374175e-54</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.59039420808403e-54</v>
+        <v>1.590266231323191e-54</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.354032393804692e-54</v>
+        <v>1.353901459700091e-54</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.125858183127545e-54</v>
+        <v>1.125719689151058e-54</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>9.114519186215406e-55</v>
+        <v>9.113012613222396e-55</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>7.163939428550603e-55</v>
+        <v>7.162265178592111e-55</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>5.462645983970724e-55</v>
+        <v>5.460758004081369e-55</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>4.066395169848464e-55</v>
+        <v>4.064247403388559e-55</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.004850322911741e-55</v>
+        <v>3.002399785751148e-55</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.238296814191349e-55</v>
+        <v>2.235511773896837e-55</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.715616828247111e-55</v>
+        <v>1.712478148439998e-55</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.385692549637571e-55</v>
+        <v>1.382193689993724e-55</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.197406162922868e-55</v>
+        <v>1.193553179172707e-55</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.099639852662148e-55</v>
+        <v>1.095451396590642e-55</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.041444843858436e-55</v>
+        <v>1.036952116667015e-55</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>9.886659755219281e-56</v>
+        <v>9.839080944870124e-56</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>9.37959934895307e-56</v>
+        <v>9.329754324099078e-56</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>8.892840929636632e-56</v>
+        <v>8.841100058820074e-56</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>8.42595820712082e-56</v>
+        <v>8.372676903496111e-56</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>7.978524891255217e-56</v>
+        <v>7.924043612588921e-56</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>7.550114691890685e-56</v>
+        <v>7.494758940561523e-56</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>7.140301318878019e-56</v>
+        <v>7.084381641876862e-56</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>6.748658482066909e-56</v>
+        <v>6.692470470996779e-56</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.374759891308161e-56</v>
+        <v>6.318584182384234e-56</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.018179256452522e-56</v>
+        <v>5.962281530502124e-56</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>5.678490287349779e-56</v>
+        <v>5.62312126981239e-56</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.355266693850693e-56</v>
+        <v>5.300662154777944e-56</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.048082185805964e-56</v>
+        <v>4.994462939861638e-56</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>4.756510473065468e-56</v>
+        <v>4.7040823795255e-56</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>4.480125265480166e-56</v>
+        <v>4.429079228232641e-56</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.218500272899983e-56</v>
+        <v>4.169012240445144e-56</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>3.971209205175614e-56</v>
+        <v>3.92344017062585e-56</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.737825772157691e-56</v>
+        <v>3.691921773237542e-56</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>3.517923683696222e-56</v>
+        <v>3.474015802742386e-56</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>3.311076649641856e-56</v>
+        <v>3.269281013603181e-56</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>3.116858379845192e-56</v>
+        <v>3.077276160282674e-56</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.934842584156315e-56</v>
+        <v>2.897559997243106e-56</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.764602972425831e-56</v>
+        <v>2.729691278947234e-56</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.605713254504312e-56</v>
+        <v>2.573228759857781e-56</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.457747140241902e-56</v>
+        <v>2.427731194437045e-56</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.320278339489297e-56</v>
+        <v>2.292757337147872e-56</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.192880562096685e-56</v>
+        <v>2.167865942452603e-56</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.07512751791462e-56</v>
+        <v>2.052615764813945e-56</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.96659291679363e-56</v>
+        <v>1.946565558694574e-56</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.866850468583949e-56</v>
+        <v>1.849274078556882e-56</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.775473883136111e-56</v>
+        <v>1.76030007886355e-56</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.692036870300616e-56</v>
+        <v>1.67920231407723e-56</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.616113139927746e-56</v>
+        <v>1.605539538660361e-56</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.54727640186801e-56</v>
+        <v>1.5388705070756e-56</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.485100365971893e-56</v>
+        <v>1.478753973785582e-56</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.429158742089712e-56</v>
+        <v>1.424748693252781e-56</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.379025240072e-56</v>
+        <v>1.376413419939879e-56</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.334273569769099e-56</v>
+        <v>1.33330690830937e-56</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.294477441031486e-56</v>
+        <v>1.294987912823886e-56</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.25921062222466e-56</v>
+        <v>1.261015251894639e-56</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.228108094079677e-56</v>
+        <v>1.231014640332052e-56</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.20098194018417e-56</v>
+        <v>1.204805341150127e-56</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.177676087586391e-56</v>
+        <v>1.182241417730967e-56</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.158034463334535e-56</v>
+        <v>1.163176933456616e-56</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.14190099447686e-56</v>
+        <v>1.14746595170918e-56</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.12911960806161e-56</v>
+        <v>1.134962535870752e-56</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.119534231136997e-56</v>
+        <v>1.125520749323395e-56</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.112988790751272e-56</v>
+        <v>1.118994655449205e-56</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.109327213952669e-56</v>
+        <v>1.115238317630269e-56</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.108393427789419e-56</v>
+        <v>1.114105799248663e-56</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.110031359309761e-56</v>
+        <v>1.115451163686477e-56</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.114084935561925e-56</v>
+        <v>1.119128474325791e-56</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.120398083594155e-56</v>
+        <v>1.124991794548694e-56</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.128814730454673e-56</v>
+        <v>1.132895187737262e-56</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.139178803191732e-56</v>
+        <v>1.142692717273592e-56</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.151334228853558e-56</v>
+        <v>1.154238446539763e-56</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.165124934488376e-56</v>
+        <v>1.167386438917846e-56</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.180394847144443e-56</v>
+        <v>1.181990757789948e-56</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.196987893869986e-56</v>
+        <v>1.197905466538143e-56</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.21474800171322e-56</v>
+        <v>1.214984628544499e-56</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.233519097722415e-56</v>
+        <v>1.233082307191132e-56</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.253145108945789e-56</v>
+        <v>1.252052565860109e-56</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.273469962431561e-56</v>
+        <v>1.271749467933498e-56</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.294337585228001e-56</v>
+        <v>1.292027076793418e-56</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.315591904383307e-56</v>
+        <v>1.312739455821916e-56</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.337076846945753e-56</v>
+        <v>1.333740668401116e-56</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.358636339963555e-56</v>
+        <v>1.35488477791308e-56</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.38011431048493e-56</v>
+        <v>1.376025847739877e-56</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.40135468555815e-56</v>
+        <v>1.397017941263626e-56</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.422201392231434e-56</v>
+        <v>1.417715121866394e-56</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.442498357552995e-56</v>
+        <v>1.437971452930247e-56</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.462089508571109e-56</v>
+        <v>1.457640997837304e-56</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.48081877233399e-56</v>
+        <v>1.476577819969633e-56</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.498530075889858e-56</v>
+        <v>1.494635982709301e-56</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.515067346286982e-56</v>
+        <v>1.511669549438424e-56</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.530274510573566e-56</v>
+        <v>1.527532583539057e-56</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.543995495797873e-56</v>
+        <v>1.542079148393313e-56</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.556074229459906e-56</v>
+        <v>1.555163307536361e-56</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.566367605540058e-56</v>
+        <v>1.566643518599532e-56</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.574779393904266e-56</v>
+        <v>1.576394124569473e-56</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.581223953826147e-56</v>
+        <v>1.584293056983804e-56</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.58561564457929e-56</v>
+        <v>1.590218247380108e-56</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.587868825437305e-56</v>
+        <v>1.594047627295995e-56</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.587897855673787e-56</v>
+        <v>1.595659128269059e-56</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.585617094562341e-56</v>
+        <v>1.594930681836901e-56</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.580940901376563e-56</v>
+        <v>1.591740219537117e-56</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.573783635390057e-56</v>
+        <v>1.585965672907309e-56</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.564059655876432e-56</v>
+        <v>1.577484973485083e-56</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.551683322109272e-56</v>
+        <v>1.566176052808023e-56</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.536568993362186e-56</v>
+        <v>1.551916842413734e-56</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.518631028908793e-56</v>
+        <v>1.534585273839835e-56</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.497783788022661e-56</v>
+        <v>1.514059278623892e-56</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.47394162997743e-56</v>
+        <v>1.490216788303542e-56</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.447018914046656e-56</v>
+        <v>1.46293573441634e-56</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.416929999503961e-56</v>
+        <v>1.432094048499908e-56</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.383608374551177e-56</v>
+        <v>1.397592400622442e-56</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.347323366707092e-56</v>
+        <v>1.359730672585018e-56</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.308630818131491e-56</v>
+        <v>1.319149325747275e-56</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.268095756885711e-56</v>
+        <v>1.276499740737361e-56</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.226283211030978e-56</v>
+        <v>1.232433298183302e-56</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.183758208628628e-56</v>
+        <v>1.187601378713243e-56</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.141085777739998e-56</v>
+        <v>1.142655362955329e-56</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.098830946426312e-56</v>
+        <v>1.098246631537585e-56</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.057558742748943e-56</v>
+        <v>1.055026565088196e-56</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.017834194769117e-56</v>
+        <v>1.013646544235189e-56</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>9.802223305481713e-57</v>
+        <v>9.747579496067093e-57</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>9.452881781474351e-57</v>
+        <v>9.390121618308938e-57</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>9.135967656281448e-57</v>
+        <v>9.070605615357829e-57</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>8.857131210516334e-57</v>
+        <v>8.795545293495169e-57</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>8.621999073503416e-57</v>
+        <v>8.571426903479244e-57</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>8.432137865991126e-57</v>
+        <v>8.400006481975608e-57</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>8.280484725960129e-57</v>
+        <v>8.27298607186167e-57</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>8.158872875059782e-57</v>
+        <v>8.180781570803571e-57</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>8.059135534939127e-57</v>
+        <v>8.11380887646721e-57</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>7.973105927247612e-57</v>
+        <v>8.062483886518798e-57</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>7.892617273634347e-57</v>
+        <v>8.01722249862431e-57</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>7.809502795748668e-57</v>
+        <v>7.968440610449866e-57</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.715595715239831e-57</v>
+        <v>7.90655411966153e-57</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.602948155784109e-57</v>
+        <v>7.822201611629835e-57</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.470504009985986e-57</v>
+        <v>7.713032626459027e-57</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>7.325322265856468e-57</v>
+        <v>7.584952141594058e-57</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.174927528284413e-57</v>
+        <v>7.444338803705952e-57</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>7.026844402159088e-57</v>
+        <v>7.297571259466077e-57</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>6.888597492369746e-57</v>
+        <v>7.151028155545826e-57</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>6.767711403805272e-57</v>
+        <v>7.011088138616191e-57</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>6.670930588156856e-57</v>
+        <v>6.883627296807155e-57</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>6.591815514418227e-57</v>
+        <v>6.766028869496932e-57</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>6.512944888513988e-57</v>
+        <v>6.648601871611493e-57</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>6.41656232424799e-57</v>
+        <v>6.521439458669046e-57</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>6.284911435424151e-57</v>
+        <v>6.374634786187841e-57</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>6.105282347115775e-57</v>
+        <v>6.200932886670002e-57</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>5.887545372988807e-57</v>
+        <v>6.00494439228255e-57</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>5.6478837368158e-57</v>
+        <v>5.79459728853212e-57</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>5.402480956638814e-57</v>
+        <v>5.57781971556042e-57</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.165001084088365e-57</v>
+        <v>5.361394210126343e-57</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>4.937876252060844e-57</v>
+        <v>5.146996146599469e-57</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>4.720409809247507e-57</v>
+        <v>4.934878238681067e-57</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>4.511904971848571e-57</v>
+        <v>4.725293139828646e-57</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>4.311664956063693e-57</v>
+        <v>4.518493503499139e-57</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>4.118992978093101e-57</v>
+        <v>4.314731983150054e-57</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.933192254136986e-57</v>
+        <v>4.114261232238885e-57</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.753566000395055e-57</v>
+        <v>3.917333904222585e-57</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.57941743306766e-57</v>
+        <v>3.724202652558824e-57</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.410049768354524e-57</v>
+        <v>3.53512013070457e-57</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.244766222455838e-57</v>
+        <v>3.350338992117313e-57</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.082870011571636e-57</v>
+        <v>3.170111890254368e-57</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.923664351902093e-57</v>
+        <v>2.994691478573208e-57</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.76648681987322e-57</v>
+        <v>2.824337690512983e-57</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.61150472593443e-57</v>
+        <v>2.659486257217221e-57</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.459737640948589e-57</v>
+        <v>2.500753480252215e-57</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.312244002296911e-57</v>
+        <v>2.348763895925492e-57</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.17008224736059e-57</v>
+        <v>2.204142040544561e-57</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.03431081352044e-57</v>
+        <v>2.06751245041654e-57</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.905988138157662e-57</v>
+        <v>1.939499661848942e-57</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.786172658653431e-57</v>
+        <v>1.820728211149249e-57</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.675922812388601e-57</v>
+        <v>1.711822634624627e-57</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.576297036744355e-57</v>
+        <v>1.613407468582566e-57</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.488353769101835e-57</v>
+        <v>1.52610724933052e-57</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.413151446841955e-57</v>
+        <v>1.45054651317571e-57</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.351748507345918e-57</v>
+        <v>1.387349796425652e-57</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.305030724526416e-57</v>
+        <v>1.337106117178045e-57</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.272905737949611e-57</v>
+        <v>1.300203283737776e-57</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.254937149621782e-57</v>
+        <v>1.276958333225302e-57</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.250688181320156e-57</v>
+        <v>1.267688224544981e-57</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.259722054822013e-57</v>
+        <v>1.272709916601239e-57</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.281601991904585e-57</v>
+        <v>1.292340368298451e-57</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.315891214345171e-57</v>
+        <v>1.326896538541051e-57</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.362152943921015e-57</v>
+        <v>1.376695386233427e-57</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.419950459662318e-57</v>
+        <v>1.442053924959104e-57</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.499182358007367e-57</v>
+        <v>1.533159861441345e-57</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.648914618340936e-57</v>
+        <v>1.697607515367942e-57</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.926812719072846e-57</v>
+        <v>1.991177188243081e-57</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.34677628945775e-57</v>
+        <v>2.426110533523235e-57</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.853000574322784e-57</v>
+        <v>2.945306675739897e-57</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.383461056957465e-57</v>
+        <v>3.485477266457572e-57</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.876133220649919e-57</v>
+        <v>3.983333957239333e-57</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>4.268992548688419e-57</v>
+        <v>4.375588399648416e-57</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.500772689880952e-57</v>
+        <v>4.599742991641084e-57</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.558547669510195e-57</v>
+        <v>4.643717853086785e-57</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.506005751563549e-57</v>
+        <v>4.575339709125693e-57</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>4.413626823252212e-57</v>
+        <v>4.469518766575326e-57</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.351890771787555e-57</v>
+        <v>4.401165232253427e-57</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.384229873066268e-57</v>
+        <v>4.437577517333948e-57</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>4.505653433491158e-57</v>
+        <v>4.572153581068606e-57</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>4.672694338740533e-57</v>
+        <v>4.756734798700499e-57</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>4.8414566905394e-57</v>
+        <v>4.942699435961979e-57</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>4.968044590613246e-57</v>
+        <v>5.08142575858593e-57</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>5.011656206574258e-57</v>
+        <v>5.127785843121064e-57</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>4.966294855813329e-57</v>
+        <v>5.075953646940783e-57</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>4.847878445776635e-57</v>
+        <v>4.944849023130812e-57</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>4.672666600411543e-57</v>
+        <v>4.753777690124115e-57</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>4.456918943664917e-57</v>
+        <v>4.52204536635311e-57</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.216793502832777e-57</v>
+        <v>4.268822633868009e-57</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.963788782964251e-57</v>
+        <v>4.007082321412125e-57</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.702904307312829e-57</v>
+        <v>3.741152790811349e-57</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.438657295094147e-57</v>
+        <v>3.474720878583172e-57</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.175564965523851e-57</v>
+        <v>3.211473421245086e-57</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.918144537816876e-57</v>
+        <v>2.955097255313869e-57</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.670913231189091e-57</v>
+        <v>2.709279217307233e-57</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.438326127291404e-57</v>
+        <v>2.477655530472929e-57</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.222668888975084e-57</v>
+        <v>2.2620953488297e-57</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.023543709224142e-57</v>
+        <v>2.062282044181018e-57</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.840386373647626e-57</v>
+        <v>1.877763443569673e-57</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.672632667855129e-57</v>
+        <v>1.708087374039e-57</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.519718377456189e-57</v>
+        <v>1.552801662632284e-57</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.381079288059937e-57</v>
+        <v>1.411454136392393e-57</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.256151185275923e-57</v>
+        <v>1.283592622362624e-57</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.144369854713649e-57</v>
+        <v>1.168764947586223e-57</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.045171081982319e-57</v>
+        <v>1.066518939106132e-57</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>9.579906526915203e-58</v>
+        <v>9.76402423965688e-58</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>8.822643524505021e-58</v>
+        <v>8.979632292078761e-58</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>8.174279668687542e-58</v>
+        <v>8.307491818759326e-58</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>7.628961948829305e-58</v>
+        <v>7.7428391867389e-58</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>7.175117382790597e-58</v>
+        <v>7.274348890917054e-58</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>6.794923349658408e-58</v>
+        <v>6.883525927095256e-58</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>6.470240167827169e-58</v>
+        <v>6.551511563436798e-58</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>6.182928155690018e-58</v>
+        <v>6.259447068103638e-58</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.914847631640981e-58</v>
+        <v>5.988473709258648e-58</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.647858914074014e-58</v>
+        <v>5.719732755064623e-58</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.363822321382362e-58</v>
+        <v>5.43436547368364e-58</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.044609075948071e-58</v>
+        <v>5.113524298823546e-58</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.680759720914921e-58</v>
+        <v>4.747238938333812e-58</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.287060881766029e-58</v>
+        <v>4.350366779844433e-58</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.88250545240273e-58</v>
+        <v>3.942072376320258e-58</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.486086326726392e-58</v>
+        <v>3.541520280726168e-58</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.116796398637307e-58</v>
+        <v>3.16787504602596e-58</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.793628562037126e-58</v>
+        <v>2.840301225184803e-58</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.535575710826275e-58</v>
+        <v>2.577963371166624e-58</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.36163073890609e-58</v>
+        <v>2.400026036936274e-58</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.290786540177603e-58</v>
+        <v>2.325653775458301e-58</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.342036008541696e-58</v>
+        <v>2.374011139697089e-58</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.534372037899501e-58</v>
+        <v>2.564262682617286e-58</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.886787522151648e-58</v>
+        <v>2.91557295718303e-58</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>3.418275355199776e-58</v>
+        <v>3.447106516359473e-58</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.150745521070583e-58</v>
+        <v>4.181004851818895e-58</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.142609796914608e-58</v>
+        <v>5.176660138678688e-58</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.477121012329002e-58</v>
+        <v>6.518815256828219e-58</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>8.238008106608951e-58</v>
+        <v>8.292698963976306e-58</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.050900001905533e-57</v>
+        <v>1.058354001783749e-57</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.33738256889645e-57</v>
+        <v>1.347656717612178e-57</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.67884545583562e-57</v>
+        <v>1.692702436945939e-57</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.954093402995385e-57</v>
+        <v>1.970189048708091e-57</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.979338985649871e-57</v>
+        <v>1.993132039203699e-57</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.774694113277466e-57</v>
+        <v>1.781863147270255e-57</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.798734317165481e-57</v>
+        <v>1.802874693824411e-57</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.970995387647991e-57</v>
+        <v>1.975146843367584e-57</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.143290094161644e-57</v>
+        <v>2.148848753468405e-57</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.180656565731519e-57</v>
+        <v>2.187463797349629e-57</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.087547780131559e-57</v>
+        <v>2.094826871322543e-57</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.951994090808877e-57</v>
+        <v>1.958911771369028e-57</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.862346968898656e-57</v>
+        <v>1.86802571529103e-57</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.846025600223154e-57</v>
+        <v>1.849895845464623e-57</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.830960597661682e-57</v>
+        <v>1.83331880692336e-57</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.782708965445099e-57</v>
+        <v>1.784207022161316e-57</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.706807711746283e-57</v>
+        <v>1.707974581450474e-57</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.610045966359937e-57</v>
+        <v>1.611272715819342e-57</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.499212859080963e-57</v>
+        <v>1.500752656296628e-57</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.381097519704314e-57</v>
+        <v>1.383065633911089e-57</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.262489078024617e-57</v>
+        <v>1.264862879691157e-57</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.149906139937342e-57</v>
+        <v>1.152532294086759e-57</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.0459872607542e-57</v>
+        <v>1.048684898802287e-57</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>9.50467679661354e-58</v>
+        <v>9.531055995600175e-58</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>8.630126231807284e-58</v>
+        <v>8.655111510780731e-58</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>7.832873178342174e-58</v>
+        <v>7.856183080745467e-58</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.109569901435037e-58</v>
+        <v>7.131438252673188e-58</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>6.456868666305443e-58</v>
+        <v>6.478044573745454e-58</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>5.871421738170473e-58</v>
+        <v>5.893169591141323e-58</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>5.349884001831149e-58</v>
+        <v>5.373981918637047e-58</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.889653116613776e-58</v>
+        <v>4.917952599875654e-58</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>4.489887123001745e-58</v>
+        <v>4.523269439536574e-58</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>4.149999105962691e-58</v>
+        <v>4.188224086827224e-58</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>3.869402150464034e-58</v>
+        <v>3.911108190954812e-58</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>3.647139355862058e-58</v>
+        <v>3.689897220511467e-58</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>3.476035063246439e-58</v>
+        <v>3.517252246031941e-58</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.343751305150687e-58</v>
+        <v>3.38142275596546e-58</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>3.237793717140007e-58</v>
+        <v>3.270524585753804e-58</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>3.145667934780055e-58</v>
+        <v>3.172673570839217e-58</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>3.054879593636113e-58</v>
+        <v>3.075985546663554e-58</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.952934329273703e-58</v>
+        <v>2.968576348668924e-58</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.828606164878845e-58</v>
+        <v>2.839790346031074e-58</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.683591185504795e-58</v>
+        <v>2.691487946915375e-58</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.527131119065737e-58</v>
+        <v>2.532838111421075e-58</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.368562251245813e-58</v>
+        <v>2.373101386326679e-58</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.217220867728731e-58</v>
+        <v>2.221538318410255e-58</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.082405917141996e-58</v>
+        <v>2.087371179838672e-58</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.967681949461492e-58</v>
+        <v>1.973943850074027e-58</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.864753467830386e-58</v>
+        <v>1.872442349138367e-58</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.764282990931023e-58</v>
+        <v>1.772999715068189e-58</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.662862352429155e-58</v>
+        <v>1.672037655835634e-58</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.561421386977613e-58</v>
+        <v>1.570578791400885e-58</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.460989189024225e-58</v>
+        <v>1.469751017306615e-58</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.36259485301691e-58</v>
+        <v>1.370682229095588e-58</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.26726747340332e-58</v>
+        <v>1.274500322310301e-58</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.176036144631454e-58</v>
+        <v>1.182333192493599e-58</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.089923349757202e-58</v>
+        <v>1.09530157919898e-58</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.009504517682104e-58</v>
+        <v>1.014042342832547e-58</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>9.346315149562129e-59</v>
+        <v>9.384091797691404e-59</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>8.650902434808004e-59</v>
+        <v>8.68184388058157e-59</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>8.006666051573433e-59</v>
+        <v>8.031502657492009e-59</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>7.411465018872985e-59</v>
+        <v>7.430891108918572e-59</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>6.863158355719652e-59</v>
+        <v>6.877832215355506e-59</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>6.359605081128056e-59</v>
+        <v>6.370148957298708e-59</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.898664214112657e-59</v>
+        <v>5.905664315243912e-59</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.478194773686689e-59</v>
+        <v>5.482201269685613e-59</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.096055778864973e-59</v>
+        <v>5.097582801119909e-59</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.750106248660887e-59</v>
+        <v>4.749631890041441e-59</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.438205202088852e-59</v>
+        <v>4.436171516945903e-59</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.15821165816317e-59</v>
+        <v>4.155024662328867e-59</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.907984635897403e-59</v>
+        <v>3.904014306685161e-59</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.685383154305876e-59</v>
+        <v>3.680963430510382e-59</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.488266232402819e-59</v>
+        <v>3.483695014300029e-59</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.314492889201941e-59</v>
+        <v>3.310032038549081e-59</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.161922143717494e-59</v>
+        <v>3.157797483753058e-59</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.028413014963652e-59</v>
+        <v>3.024814330407402e-59</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.911824521954238e-59</v>
+        <v>2.908905559007209e-59</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.810015683703528e-59</v>
+        <v>2.807894150048024e-59</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.720845519225404e-59</v>
+        <v>2.719603084024995e-59</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.642173047534026e-59</v>
+        <v>2.641855341433555e-59</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.571857287643456e-59</v>
+        <v>2.572473902769033e-59</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.507757258567811e-59</v>
+        <v>2.509281748526817e-59</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.447731979321042e-59</v>
+        <v>2.450101859202125e-59</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.389891006688989e-59</v>
+        <v>2.393012552348671e-59</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.333739163717372e-59</v>
+        <v>2.337514139417252e-59</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.279264133858502e-59</v>
+        <v>2.28359904191038e-59</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.22645406716118e-59</v>
+        <v>2.231260156865158e-59</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.175297113674069e-59</v>
+        <v>2.180490381318546e-59</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.125781423445973e-59</v>
+        <v>2.131282612307649e-59</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.077895146525692e-59</v>
+        <v>2.083629746869567e-59</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.031626432961896e-59</v>
+        <v>2.037524682041267e-59</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.986963432803387e-59</v>
+        <v>1.992960314859852e-59</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.943894296098959e-59</v>
+        <v>1.949929542362414e-59</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.902407172897291e-59</v>
+        <v>1.908425261585932e-59</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.862490213247215e-59</v>
+        <v>1.868440369567536e-59</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.824131567197417e-59</v>
+        <v>1.829967763344212e-59</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.787319384796689e-59</v>
+        <v>1.79300033995305e-59</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.752041816093819e-59</v>
+        <v>1.75753099643114e-59</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.718287011137501e-59</v>
+        <v>1.723552629815474e-59</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.686043119976524e-59</v>
+        <v>1.69105813714314e-59</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.655298292659673e-59</v>
+        <v>1.66004041545122e-59</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.626040679235648e-59</v>
+        <v>1.630492361776716e-59</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.598258429753235e-59</v>
+        <v>1.602406873156712e-59</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.571939694261213e-59</v>
+        <v>1.575776846628288e-59</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.547072622808293e-59</v>
+        <v>1.550595179228451e-59</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.523645365443275e-59</v>
+        <v>1.526854767994304e-59</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.501646072214875e-59</v>
+        <v>1.504548509962859e-59</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.481062893171871e-59</v>
+        <v>1.483669302171194e-59</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.461883978363036e-59</v>
+        <v>1.464210041656382e-59</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.444097477837094e-59</v>
+        <v>1.446163625455445e-59</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.427691541642818e-59</v>
+        <v>1.429522950605458e-59</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.412654319828979e-59</v>
+        <v>1.414280914143487e-59</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.398973962444306e-59</v>
+        <v>1.400430413106563e-59</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.386638619537571e-59</v>
+        <v>1.387964344531756e-59</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.375636441157539e-59</v>
+        <v>1.376875605456132e-59</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.365955577352947e-59</v>
+        <v>1.367157092916726e-59</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.35758417817257e-59</v>
+        <v>1.358801703950611e-59</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.35051039366515e-59</v>
+        <v>1.35180233559483e-59</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.344759302970693e-59</v>
+        <v>1.346186371543846e-59</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.340530477238896e-59</v>
+        <v>1.342144146866096e-59</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.338074975190933e-59</v>
+        <v>1.339914078891944e-59</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.337643863010695e-59</v>
+        <v>1.339734591920899e-59</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.339488206882077e-59</v>
+        <v>1.341844110252477e-59</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.343859072988979e-59</v>
+        <v>1.346481058186194e-59</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.351007527515296e-59</v>
+        <v>1.353883860021563e-59</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.361184636644913e-59</v>
+        <v>1.364290940058088e-59</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.374641466561743e-59</v>
+        <v>1.377940722595302e-59</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.391629083449675e-59</v>
+        <v>1.395071631932711e-59</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.412398553492584e-59</v>
+        <v>1.415922092369808e-59</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.437175716290808e-59</v>
+        <v>1.44070583221125e-59</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.465735803510214e-59</v>
+        <v>1.469195449427601e-59</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.497465483774016e-59</v>
+        <v>1.500783151561944e-59</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.531738693531864e-59</v>
+        <v>1.534848681778575e-59</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.56792936923329e-59</v>
+        <v>1.570771783241679e-59</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.605411447327952e-59</v>
+        <v>1.607932199115561e-59</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.643558864265411e-59</v>
+        <v>1.645709672564433e-59</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.681745556495227e-59</v>
+        <v>1.683483946752504e-59</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.719345460467061e-59</v>
+        <v>1.720634764844082e-59</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.755732512630471e-59</v>
+        <v>1.756541870003378e-59</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.790280649435019e-59</v>
+        <v>1.790585005394603e-59</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.822363807330362e-59</v>
+        <v>1.822143914182061e-59</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.85135592276606e-59</v>
+        <v>1.850598339529963e-59</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.876630932191685e-59</v>
+        <v>1.875328024602531e-59</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.897562772056875e-59</v>
+        <v>1.895712712564052e-59</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.913971367513003e-59</v>
+        <v>1.911579264337441e-59</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.927734269566388e-59</v>
+        <v>1.924817375748778e-59</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.941322034313286e-59</v>
+        <v>1.937911248954995e-59</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.957205273202227e-59</v>
+        <v>1.953345141605421e-59</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.977854597681782e-59</v>
+        <v>1.973603311349427e-59</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.005740619200485e-59</v>
+        <v>2.00117001583635e-59</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.043333949206841e-59</v>
+        <v>2.038529512715495e-59</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.093105199149462e-59</v>
+        <v>2.088166059636274e-59</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.157521734432525e-59</v>
+        <v>2.152560623747092e-59</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.23804537744855e-59</v>
+        <v>2.23317485765397e-59</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.333713920094135e-59</v>
+        <v>2.329013184876731e-59</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.443207230243348e-59</v>
+        <v>2.438717202922792e-59</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.56520517577021e-59</v>
+        <v>2.560928509299515e-59</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.698387624549078e-59</v>
+        <v>2.694288701514602e-59</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.841434444453982e-59</v>
+        <v>2.837439377075429e-59</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.99302550335892e-59</v>
+        <v>2.989022133489334e-59</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.151840669138301e-59</v>
+        <v>3.147678568264074e-59</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.316460432690793e-59</v>
+        <v>3.311956546725662e-59</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.484252633554432e-59</v>
+        <v>3.47926016365534e-59</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.651774611164609e-59</v>
+        <v>3.646229051620322e-59</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.815568873958598e-59</v>
+        <v>3.809488854617533e-59</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.972177930374112e-59</v>
+        <v>3.965665216644333e-59</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>4.11814428884842e-59</v>
+        <v>4.111383781697641e-59</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>4.25001045781883e-59</v>
+        <v>4.243270193774414e-59</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>4.364318945722997e-59</v>
+        <v>4.357950096871957e-59</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>4.457612260998215e-59</v>
+        <v>4.452049134987213e-59</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>4.526448686249153e-59</v>
+        <v>4.522197713792665e-59</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.567611068147264e-59</v>
+        <v>4.565094027084851e-59</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.57804944130131e-59</v>
+        <v>4.577486736915284e-59</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.55471782520882e-59</v>
+        <v>4.556125708235629e-59</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.49457023936728e-59</v>
+        <v>4.497760805997499e-59</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.394560703274302e-59</v>
+        <v>4.399141895152637e-59</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.251645901970972e-59</v>
+        <v>4.257021563880036e-59</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>4.06710737615526e-59</v>
+        <v>4.072570848165464e-59</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.855346266056302e-59</v>
+        <v>3.860364298556451e-59</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>3.63324213396654e-59</v>
+        <v>3.637508522020155e-59</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>3.417674540941972e-59</v>
+        <v>3.42111012427225e-59</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>3.222167933712337e-59</v>
+        <v>3.2248798170152e-59</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.047113940325675e-59</v>
+        <v>3.049235870621303e-59</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.889691359135098e-59</v>
+        <v>2.891344675477389e-59</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.747078988493113e-59</v>
+        <v>2.748372621969684e-59</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.616455626752655e-59</v>
+        <v>2.617486100484843e-59</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.495000072266516e-59</v>
+        <v>2.495851501409374e-59</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.379891123387581e-59</v>
+        <v>2.380635215129885e-59</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.268307578468436e-59</v>
+        <v>2.269003632032679e-59</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.157428235862075e-59</v>
+        <v>2.158123142504469e-59</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.044870596128678e-59</v>
+        <v>2.045599243321282e-59</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.930778253861985e-59</v>
+        <v>1.931565852616431e-59</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.816197110709826e-59</v>
+        <v>1.817060026884711e-59</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.702174194433809e-59</v>
+        <v>1.70311994977219e-59</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.589756532795854e-59</v>
+        <v>1.590783804925252e-59</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.479991153557871e-59</v>
+        <v>1.48108977599027e-59</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.373925084481477e-59</v>
+        <v>1.375076046613325e-59</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.272605353328586e-59</v>
+        <v>1.273780800440794e-59</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.177073620704335e-59</v>
+        <v>1.178236914912606e-59</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.087851153064894e-59</v>
+        <v>1.088962783002445e-59</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.004511420673964e-59</v>
+        <v>1.005539764823141e-59</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>9.265272899636455e-60</v>
+        <v>9.274497591298016e-60</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>8.533716273662666e-60</v>
+        <v>8.541746646777645e-60</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>7.845172993141382e-60</v>
+        <v>7.851963802223493e-60</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>7.194371722393868e-60</v>
+        <v>7.199968045186913e-60</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>6.576041125743269e-60</v>
+        <v>6.580578363221141e-60</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>5.984909867512611e-60</v>
+        <v>5.98861374387929e-60</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>5.415884271975753e-60</v>
+        <v>5.419067139787521e-60</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>4.868083097923719e-60</v>
+        <v>4.871056330102587e-60</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>4.34490889798031e-60</v>
+        <v>4.347893795734074e-60</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.849956157846275e-60</v>
+        <v>3.853079958945805e-60</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>3.386819363224191e-60</v>
+        <v>3.390115242003426e-60</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.959092999814915e-60</v>
+        <v>2.962500067170864e-60</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.570371553320573e-60</v>
+        <v>2.573734856713318e-60</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.22424950944315e-60</v>
+        <v>2.227320032895843e-60</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.924321353883714e-60</v>
+        <v>1.926756017982579e-60</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.673820897834808e-60</v>
+        <v>1.675239986634515e-60</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.474424123465104e-60</v>
+        <v>1.474659323364782e-60</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.327386512550152e-60</v>
+        <v>1.326547864727285e-60</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.233926058116738e-60</v>
+        <v>1.232399014126889e-60</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.19284138381217e-60</v>
+        <v>1.191096685955016e-60</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.198543571327892e-60</v>
+        <v>1.196855225834112e-60</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.241670162774455e-60</v>
+        <v>1.240220442859837e-60</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.311507315135796e-60</v>
+        <v>1.310438763333323e-60</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.39733791773966e-60</v>
+        <v>1.396753471641415e-60</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.488463842042802e-60</v>
+        <v>1.488426357916933e-60</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.574625517048945e-60</v>
+        <v>1.575146763625653e-60</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.646003025760817e-60</v>
+        <v>1.647032650501354e-60</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.692795652600637e-60</v>
+        <v>1.694220699810866e-60</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.705202681990825e-60</v>
+        <v>1.706847592821219e-60</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.673431518120088e-60</v>
+        <v>1.675058159134927e-60</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.596128698313964e-60</v>
+        <v>1.597466054374568e-60</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.496338729479072e-60</v>
+        <v>1.497168747402146e-60</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.401489419020738e-60</v>
+        <v>1.401662430113811e-60</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.337631902122552e-60</v>
+        <v>1.337069043617945e-60</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.30498814902675e-60</v>
+        <v>1.303726795097358e-60</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.280828385152161e-60</v>
+        <v>1.279062516822123e-60</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.241624165508702e-60</v>
+        <v>1.239705775437795e-60</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.169129838333552e-60</v>
+        <v>1.167520189659465e-60</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.067462782582174e-60</v>
+        <v>1.066526078678027e-60</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>9.466568424988139e-61</v>
+        <v>9.466056393042074e-61</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>8.167458999891069e-61</v>
+        <v>8.176411056626402e-61</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>6.877638369587193e-61</v>
+        <v>6.895147118779909e-61</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>5.697438189919524e-61</v>
+        <v>5.72107988277084e-61</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.701506130486331e-61</v>
+        <v>4.727789701643746e-61</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.881097268281221e-61</v>
+        <v>3.906922297916866e-61</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.210571132161313e-61</v>
+        <v>3.233523232740763e-61</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.664287250986002e-61</v>
+        <v>2.682638067268272e-61</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.216605153614229e-61</v>
+        <v>2.229312362651789e-61</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.841884368903785e-61</v>
+        <v>1.848591680042539e-61</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.514484803499993e-61</v>
+        <v>1.515521962358144e-61</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.226385857605665e-61</v>
+        <v>1.222953317641029e-61</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.012043463402176e-61</v>
+        <v>1.006317287481395e-61</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>8.646290179849538e-62</v>
+        <v>8.584686366253087e-62</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.68663836196377e-62</v>
+        <v>7.633889276021392e-62</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>7.086692328785957e-62</v>
+        <v>7.050597229410301e-62</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.691665228740604e-62</v>
+        <v>6.674625851714212e-62</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.367979475400227e-62</v>
+        <v>6.367791265910724e-62</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.082614965312696e-62</v>
+        <v>6.096218473940125e-62</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>5.832323149167226e-62</v>
+        <v>5.856914689046923e-62</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>5.61386004787632e-62</v>
+        <v>5.646891865195653e-62</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>5.423981682353175e-62</v>
+        <v>5.463161956351512e-62</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.259444073510883e-62</v>
+        <v>5.302736916479601e-62</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.117003242262106e-62</v>
+        <v>5.162628699544598e-62</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>4.993415209519958e-62</v>
+        <v>5.039849259511624e-62</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>4.885435996197485e-62</v>
+        <v>4.931410550345739e-62</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>4.78982162320745e-62</v>
+        <v>4.834324526011715e-62</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>4.703328111462989e-62</v>
+        <v>4.745603140474699e-62</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>4.622715731694893e-62</v>
+        <v>4.662262291603839e-62</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>4.545561406110409e-62</v>
+        <v>4.582075743912697e-62</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>4.471224354259782e-62</v>
+        <v>4.50447126456542e-62</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>4.399298908079568e-62</v>
+        <v>4.429094809072564e-62</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>4.329379399506518e-62</v>
+        <v>4.355592332944905e-62</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>4.261060160477384e-62</v>
+        <v>4.283609791693213e-62</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>4.193935522928728e-62</v>
+        <v>4.212793140828054e-62</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>4.127599818797301e-62</v>
+        <v>4.1427883358602e-62</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>4.061647380019848e-62</v>
+        <v>4.073241332300412e-62</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.99567253853294e-62</v>
+        <v>4.00379808565927e-62</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.929269626273385e-62</v>
+        <v>3.934104551447601e-62</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.862032975177747e-62</v>
+        <v>3.863806685175981e-62</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.793556917182777e-62</v>
+        <v>3.792550442355176e-62</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.723435784225224e-62</v>
+        <v>3.719981778495951e-62</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.65126390824165e-62</v>
+        <v>3.645746649108881e-62</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.576635621168803e-62</v>
+        <v>3.569491009704729e-62</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.499145254943444e-62</v>
+        <v>3.490860815794272e-62</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.418387141502122e-62</v>
+        <v>3.40950202288807e-62</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.333955612781589e-62</v>
+        <v>3.325060586496893e-62</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.245915839589841e-62</v>
+        <v>3.237629149077658e-62</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.156504698806736e-62</v>
+        <v>3.149360660365251e-62</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.068584787929546e-62</v>
+        <v>3.063001694047066e-62</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.985018762555269e-62</v>
+        <v>2.981298878929956e-62</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.908669278281146e-62</v>
+        <v>2.906998843821013e-62</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.842398990704338e-62</v>
+        <v>2.84284821752725e-62</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.789070555422043e-62</v>
+        <v>2.791593628855717e-62</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.751546628031326e-62</v>
+        <v>2.755981706613333e-62</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.732689864129406e-62</v>
+        <v>2.738759079607167e-62</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.735362919313408e-62</v>
+        <v>2.7426723766442e-62</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.762428449180518e-62</v>
+        <v>2.770468226531466e-62</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.816749109327832e-62</v>
+        <v>2.824893258075918e-62</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.901187555352607e-62</v>
+        <v>2.908694100084662e-62</v>
       </c>
     </row>
   </sheetData>
